--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>id</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>MessageBoxWindow</t>
+  </si>
+  <si>
+    <t>HeroListWindow</t>
   </si>
   <si>
     <t>GuideWindow</t>
@@ -522,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -695,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -739,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -768,45 +771,89 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1292752314</v>
+        <v>1597455901</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
+        <v>-841801683</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-1493566452</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3">
+        <v>-1292752314</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3">
         <v>-1287614635</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="3">
         <v>-2023891807</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>500</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -117,10 +117,10 @@
     <t>LobbyWindow</t>
   </si>
   <si>
+    <t>HeroListWindow</t>
+  </si>
+  <si>
     <t>MessageBoxWindow</t>
-  </si>
-  <si>
-    <t>HeroListWindow</t>
   </si>
   <si>
     <t>GuideWindow</t>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
@@ -727,16 +727,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-104138007</v>
+        <v>1597455901</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>1299702156</v>
+        <v>-841801683</v>
       </c>
       <c r="D5" s="3">
-        <v>-833208201</v>
+        <v>-1493566452</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -771,22 +771,22 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1597455901</v>
+        <v>-104138007</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>-841801683</v>
+        <v>1299702156</v>
       </c>
       <c r="D6" s="3">
-        <v>-1493566452</v>
+        <v>-833208201</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>LobbyWindow</t>
+  </si>
+  <si>
+    <t>PlayerListWindow</t>
   </si>
   <si>
     <t>HeroListWindow</t>
@@ -525,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -698,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -727,16 +730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1597455901</v>
+        <v>-895006523</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>-841801683</v>
+        <v>-552127726</v>
       </c>
       <c r="D5" s="3">
-        <v>-1493566452</v>
+        <v>-234066055</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -745,7 +748,7 @@
         <v>200</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3">
         <v>0</v>
@@ -771,25 +774,25 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-104138007</v>
+        <v>1597455901</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>1299702156</v>
+        <v>-841801683</v>
       </c>
       <c r="D6" s="3">
-        <v>-833208201</v>
+        <v>-1493566452</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -815,45 +818,89 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1292752314</v>
+        <v>-104138007</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
+        <v>1299702156</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>300</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>-1292752314</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3">
         <v>-1287614635</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>-2023891807</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityFramework\StrayFogUnity3d\Assets\Game\Editor\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityFramework\StrayFogUnity3d\Assets\Game\Editor\XLS_Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
     <t>isIgnoreOpenCloseMode</t>
   </si>
   <si>
-    <t>isNotAutoRestoreSequenceWindow</t>
+    <t>isAutoRestoreSequenceWindow</t>
   </si>
   <si>
     <t>isDonotDestroyInstance</t>
@@ -99,7 +99,7 @@
     <t>是否忽略打开关闭模式</t>
   </si>
   <si>
-    <t>是否是不可自动恢复序列窗口</t>
+    <t>是否是自动恢复序列窗口</t>
   </si>
   <si>
     <t>是否是不可销毁实例</t>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="3">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>1</v>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -117,10 +117,10 @@
     <t>LobbyWindow</t>
   </si>
   <si>
+    <t>HeroListWindow</t>
+  </si>
+  <si>
     <t>PlayerListWindow</t>
-  </si>
-  <si>
-    <t>HeroListWindow</t>
   </si>
   <si>
     <t>MessageBoxWindow</t>
@@ -686,16 +686,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-521227080</v>
+        <v>-1979395819</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>-1625153888</v>
+        <v>344749750</v>
       </c>
       <c r="D4" s="3">
-        <v>-1392412074</v>
+        <v>-466514230</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-895006523</v>
+        <v>-1543033018</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>-552127726</v>
+        <v>1750531901</v>
       </c>
       <c r="D5" s="3">
-        <v>-234066055</v>
+        <v>-1254891170</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1597455901</v>
+        <v>-2000797334</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>-841801683</v>
+        <v>1294323570</v>
       </c>
       <c r="D6" s="3">
-        <v>-1493566452</v>
+        <v>-1646712389</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-104138007</v>
+        <v>259464890</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>1299702156</v>
+        <v>949097290</v>
       </c>
       <c r="D7" s="3">
-        <v>-833208201</v>
+        <v>1748860649</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -862,16 +862,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-1292752314</v>
+        <v>600045345</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>-1287614635</v>
+        <v>138706997</v>
       </c>
       <c r="D8" s="3">
-        <v>-2023891807</v>
+        <v>1096960845</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -114,19 +114,19 @@
     <t>是否是引导窗口</t>
   </si>
   <si>
-    <t>LobbyWindow</t>
-  </si>
-  <si>
-    <t>HeroListWindow</t>
-  </si>
-  <si>
-    <t>PlayerListWindow</t>
-  </si>
-  <si>
-    <t>MessageBoxWindow</t>
-  </si>
-  <si>
-    <t>GuideWindow</t>
+    <t>ExampleLobbyWindow</t>
+  </si>
+  <si>
+    <t>ExampleHeroListWindow</t>
+  </si>
+  <si>
+    <t>ExamplePlayerListWindow</t>
+  </si>
+  <si>
+    <t>ExampleMessageBoxWindow</t>
+  </si>
+  <si>
+    <t>ExampleGuideWindow</t>
   </si>
 </sst>
 </file>
@@ -686,16 +686,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-1979395819</v>
+        <v>-197707795</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>344749750</v>
+        <v>553737605</v>
       </c>
       <c r="D4" s="3">
-        <v>-466514230</v>
+        <v>-1422368536</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1543033018</v>
+        <v>-491778195</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>1750531901</v>
+        <v>1925488967</v>
       </c>
       <c r="D5" s="3">
-        <v>-1254891170</v>
+        <v>417181438</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-2000797334</v>
+        <v>-1411522539</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>1294323570</v>
+        <v>1130140136</v>
       </c>
       <c r="D6" s="3">
-        <v>-1646712389</v>
+        <v>498502262</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>259464890</v>
+        <v>1708735878</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>949097290</v>
+        <v>-593267104</v>
       </c>
       <c r="D7" s="3">
-        <v>1748860649</v>
+        <v>-41951286</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -862,16 +862,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>600045345</v>
+        <v>253189677</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>138706997</v>
+        <v>437101228</v>
       </c>
       <c r="D8" s="3">
-        <v>1096960845</v>
+        <v>1553275941</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -686,16 +686,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-197707795</v>
+        <v>215714603</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>553737605</v>
+        <v>1661360036</v>
       </c>
       <c r="D4" s="3">
-        <v>-1422368536</v>
+        <v>862041518</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-491778195</v>
+        <v>499728831</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>1925488967</v>
+        <v>1108461878</v>
       </c>
       <c r="D5" s="3">
-        <v>417181438</v>
+        <v>-347142667</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1411522539</v>
+        <v>1801515507</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>1130140136</v>
+        <v>1000397029</v>
       </c>
       <c r="D6" s="3">
-        <v>498502262</v>
+        <v>2109814590</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1708735878</v>
+        <v>-513363816</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>-593267104</v>
+        <v>43984874</v>
       </c>
       <c r="D7" s="3">
-        <v>-41951286</v>
+        <v>315457823</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -862,16 +862,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>253189677</v>
+        <v>899509665</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>437101228</v>
+        <v>1052043934</v>
       </c>
       <c r="D8" s="3">
-        <v>1553275941</v>
+        <v>-1720585928</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>

--- a/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
+++ b/Assets/Game/Editor/XLS_Config/UIWindowSetting.xlsx
@@ -686,16 +686,16 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>215714603</v>
+        <v>1758967500</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>1661360036</v>
+        <v>-446825264</v>
       </c>
       <c r="D4" s="3">
-        <v>862041518</v>
+        <v>-981518740</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -730,16 +730,16 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>499728831</v>
+        <v>-1629584243</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3">
-        <v>1108461878</v>
+        <v>-445507712</v>
       </c>
       <c r="D5" s="3">
-        <v>-347142667</v>
+        <v>-773123988</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -774,16 +774,16 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1801515507</v>
+        <v>-527730573</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="3">
-        <v>1000397029</v>
+        <v>-600084579</v>
       </c>
       <c r="D6" s="3">
-        <v>2109814590</v>
+        <v>-392477947</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -818,16 +818,16 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-513363816</v>
+        <v>513503323</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="3">
-        <v>43984874</v>
+        <v>-1903962988</v>
       </c>
       <c r="D7" s="3">
-        <v>315457823</v>
+        <v>679003640</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -862,16 +862,16 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>899509665</v>
+        <v>186747624</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="3">
-        <v>1052043934</v>
+        <v>-594678200</v>
       </c>
       <c r="D8" s="3">
-        <v>-1720585928</v>
+        <v>-1586573444</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
